--- a/project/cpdc-collector/src/native/calc/out/字段完整度_test.xlsx
+++ b/project/cpdc-collector/src/native/calc/out/字段完整度_test.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -390,7 +390,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>随访时间</v>
+        <v>PATIENT_NO</v>
       </c>
       <c r="B2" t="str">
         <v>100.00%</v>
@@ -398,487 +398,79 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>随访时长</v>
+        <v>住院ID</v>
       </c>
       <c r="B3" t="str">
-        <v>92.98%</v>
+        <v>100.00%</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>治疗方式</v>
+        <v>住院流水号</v>
       </c>
       <c r="B4" t="str">
-        <v>99.60%</v>
+        <v>100.00%</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>药品名称(通用名)</v>
+        <v>患者姓名</v>
       </c>
       <c r="B5" t="str">
-        <v>82.97%</v>
+        <v>100.00%</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>药品名称(商品名)</v>
+        <v>性别</v>
       </c>
       <c r="B6" t="str">
-        <v>42.70%</v>
+        <v>100.00%</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>剂量</v>
+        <v>患者年龄</v>
       </c>
       <c r="B7" t="str">
-        <v>70.49%</v>
+        <v>100.00%</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>疗程/周期</v>
+        <v>入院日期</v>
       </c>
       <c r="B8" t="str">
-        <v>71.11%</v>
+        <v>100.00%</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>化疗方法</v>
+        <v>出院日期</v>
       </c>
       <c r="B9" t="str">
-        <v>81.30%</v>
+        <v>100.00%</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>是否好转</v>
+        <v>离院方式</v>
       </c>
       <c r="B10" t="str">
-        <v>57.13%</v>
+        <v>100.00%</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>化疗费用</v>
+        <v>总完整率</v>
       </c>
       <c r="B11" t="str">
-        <v>34.84%</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>治疗前CA199</v>
-      </c>
-      <c r="B12" t="str">
-        <v>39.74%</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>治疗前CEA</v>
-      </c>
-      <c r="B13" t="str">
-        <v>38.85%</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>治疗前CA125</v>
-      </c>
-      <c r="B14" t="str">
-        <v>33.93%</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>术前CT评价</v>
-      </c>
-      <c r="B15" t="str">
-        <v>27.24%</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>治疗后CA199</v>
-      </c>
-      <c r="B16" t="str">
-        <v>36.73%</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>治疗后CEA</v>
-      </c>
-      <c r="B17" t="str">
-        <v>34.61%</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>治疗后CA125</v>
-      </c>
-      <c r="B18" t="str">
-        <v>30.61%</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>术后CT评价</v>
-      </c>
-      <c r="B19" t="str">
-        <v>30.27%</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>CA19-9#YXA_O_911</v>
-      </c>
-      <c r="B20" t="str">
-        <v>35.97%</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>CEA#YXA_O_912</v>
-      </c>
-      <c r="B21" t="str">
-        <v>33.78%</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>CA242#YXA_O_913</v>
-      </c>
-      <c r="B22" t="str">
-        <v>16.92%</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>CA72-4#YXA_O_914</v>
-      </c>
-      <c r="B23" t="str">
-        <v>19.97%</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>CA125#YXA_O_915</v>
-      </c>
-      <c r="B24" t="str">
-        <v>28.93%</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>是否局部复发#YXA_O_250</v>
-      </c>
-      <c r="B25" t="str">
-        <v>77.06%</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>复发日期#YXA_O_251</v>
-      </c>
-      <c r="B26" t="str">
-        <v>22.78%</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>无复发生存期#YXA_O_252</v>
-      </c>
-      <c r="B27" t="str">
-        <v>22.79%</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>是否转移#YXA_O_253</v>
-      </c>
-      <c r="B28" t="str">
-        <v>77.62%</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>转移日期#YXA_O_254</v>
-      </c>
-      <c r="B29" t="str">
-        <v>27.84%</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>无转移生存期#YXA_O_255</v>
-      </c>
-      <c r="B30" t="str">
-        <v>27.84%</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>是否死亡#YXA_O_256</v>
-      </c>
-      <c r="B31" t="str">
-        <v>88.61%</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>死亡日期#YXA_O_257</v>
-      </c>
-      <c r="B32" t="str">
-        <v>33.89%</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>死亡原因#YXA_O_258</v>
-      </c>
-      <c r="B33" t="str">
-        <v>24.09%</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>腹泻/脂肪泻#YXA_O_259</v>
-      </c>
-      <c r="B34" t="str">
-        <v>84.52%</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>胰酶替代治疗-方案#YXA_O_260</v>
-      </c>
-      <c r="B35" t="str">
-        <v>3.88%</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>胰酶替代治疗-时长#YXA_O_261</v>
-      </c>
-      <c r="B36" t="str">
-        <v>3.45%</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>胰酶替代治疗-效果#YXA_O_262</v>
-      </c>
-      <c r="B37" t="str">
-        <v>3.83%</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>术后新发糖尿病#YXA_O_263</v>
-      </c>
-      <c r="B38" t="str">
-        <v>84.61%</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>治疗#YXA_O_264</v>
-      </c>
-      <c r="B39" t="str">
-        <v>3.98%</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>营养支持治疗#YXA_O_265</v>
-      </c>
-      <c r="B40" t="str">
-        <v>85.01%</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>治疗方式#YXA_O_266</v>
-      </c>
-      <c r="B41" t="str">
-        <v>26.48%</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>吻合口狭窄/梗阻#YXA_O_267</v>
-      </c>
-      <c r="B42" t="str">
-        <v>84.98%</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>治疗方式#YXA_O_268</v>
-      </c>
-      <c r="B43" t="str">
-        <v>0.31%</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>胆管炎#YXA_O_269</v>
-      </c>
-      <c r="B44" t="str">
-        <v>70.52%</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>治疗方式#YXA_O_270</v>
-      </c>
-      <c r="B45" t="str">
-        <v>0.82%</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>肝脓肿#YXA_O_271</v>
-      </c>
-      <c r="B46" t="str">
-        <v>84.95%</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>治疗方式#YXA_O_272</v>
-      </c>
-      <c r="B47" t="str">
-        <v>0.26%</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v>吻合口溃疡#YXA_O_273</v>
-      </c>
-      <c r="B48" t="str">
-        <v>84.95%</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>治疗方式#YXA_O_274</v>
-      </c>
-      <c r="B49" t="str">
-        <v>0.14%</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>倾倒综合征#YXA_O_275</v>
-      </c>
-      <c r="B50" t="str">
-        <v>70.48%</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="str">
-        <v>治疗方式#YXA_O_276</v>
-      </c>
-      <c r="B51" t="str">
-        <v>0.04%</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="str">
-        <v>慢性胰腺炎#YXA_O_277</v>
-      </c>
-      <c r="B52" t="str">
-        <v>84.90%</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="str">
-        <v>治疗方式#YXA_O_278</v>
-      </c>
-      <c r="B53" t="str">
-        <v>0.29%</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="str">
-        <v>胰管结石#YXA_O_279</v>
-      </c>
-      <c r="B54" t="str">
-        <v>84.99%</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="str">
-        <v>治疗方式#YXA_O_280</v>
-      </c>
-      <c r="B55" t="str">
-        <v>0.08%</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="str">
-        <v>其他并发症#YXA_O_281</v>
-      </c>
-      <c r="B56" t="str">
-        <v>16.05%</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="str">
-        <v>治疗方式#YXA_O_282</v>
-      </c>
-      <c r="B57" t="str">
-        <v>12.31%</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="str">
-        <v>再次手术#YXA_O_283</v>
-      </c>
-      <c r="B58" t="str">
-        <v>85.63%</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="str">
-        <v>手术日期#YXA_O_284</v>
-      </c>
-      <c r="B59" t="str">
-        <v>1.54%</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="str">
-        <v>手术名称#YXA_O_285</v>
-      </c>
-      <c r="B60" t="str">
-        <v>1.57%</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="str">
-        <v>术后病理#YXA_O_286</v>
-      </c>
-      <c r="B61" t="str">
-        <v>0.75%</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="str">
-        <v>总完整率</v>
-      </c>
-      <c r="B62" t="str">
-        <v>2.38%</v>
+        <v>1.00%</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B62"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B11"/>
   </ignoredErrors>
 </worksheet>
 </file>